--- a/exotendon_experiment_subjectdata_mkii.xlsx
+++ b/exotendon_experiment_subjectdata_mkii.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\code\repos\Stanford\delplab\projects\muscleModel\muscleEnergyModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B57D45-FFB2-4FA4-A07F-7727C39EE97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4BF89D-BB94-43EF-A4A2-699A641A960F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6B4EC36C-2AA5-4CBE-AC96-DA63D7F1FB97}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
   <si>
     <t>Subject</t>
   </si>
@@ -91,13 +91,16 @@
     <t>M</t>
   </si>
   <si>
-    <t>Sarah ?</t>
-  </si>
-  <si>
     <t>Julia Chao</t>
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>Sarah Johnson</t>
+  </si>
+  <si>
+    <t>Johanna O'Day</t>
   </si>
 </sst>
 </file>
@@ -452,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B7F8C1C-7C54-430E-ACDA-49FC55B874BD}">
-  <dimension ref="A2:P9"/>
+  <dimension ref="A2:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,7 +494,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -612,12 +615,17 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
